--- a/MSE_allmodels_latex.xlsx
+++ b/MSE_allmodels_latex.xlsx
@@ -1,71 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Tes_Cap2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA7E4B-A589-4529-A757-661ED2F1B68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Descricao</t>
-  </si>
-  <si>
-    <t>VECM</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Etanol Hidratado</t>
-  </si>
-  <si>
-    <t>Oleo Diesel</t>
-  </si>
-  <si>
-    <t>Gasolina Comum</t>
-  </si>
-  <si>
-    <t>GVAR M1</t>
-  </si>
-  <si>
-    <t>GVAR M2</t>
-  </si>
-  <si>
-    <t>GVAR M3</t>
-  </si>
-  <si>
-    <t>GVAR M4</t>
-  </si>
-  <si>
-    <t>GVAR M5</t>
-  </si>
-  <si>
-    <t>GVAR M6</t>
-  </si>
-  <si>
-    <t>GVAR M7</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +27,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,32 +52,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,161 +350,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="9" width="10.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Descricao</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GVAR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VECM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GVAR_M12</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GVAR_M13</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GVAR_M14</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GVAR_M15</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>GVAR_M16</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>GVAR_M17</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4.18988566687601E-4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.8908327279474093E-4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5.8216596953302227E-4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6.3656839741100732E-4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5.5783042659272224E-4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6.0591547201626196E-4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3.6156539953567299E-4</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3.7424256234852652E-4</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.0003890832727947409</v>
+      </c>
+      <c r="C2">
+        <v>0.000418988566687601</v>
+      </c>
+      <c r="D2">
+        <v>0.0005821659695330223</v>
+      </c>
+      <c r="E2">
+        <v>0.0006365683974110073</v>
+      </c>
+      <c r="F2">
+        <v>0.0005578304265927222</v>
+      </c>
+      <c r="G2">
+        <v>0.000605915472016262</v>
+      </c>
+      <c r="H2">
+        <v>0.000361565399535673</v>
+      </c>
+      <c r="I2">
+        <v>0.0003742425623485265</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5.6502840759306225E-4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.3284455193269712E-4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6.3795073668890961E-4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>8.0492474228816794E-4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.5444157873581325E-4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>7.9494331791301069E-4</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4.9047981917541125E-4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5.0041992254523866E-4</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Etanol Hidratado</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.0005328445519326971</v>
+      </c>
+      <c r="C3">
+        <v>0.0005650284075930623</v>
+      </c>
+      <c r="D3">
+        <v>0.0006379507366889096</v>
+      </c>
+      <c r="E3">
+        <v>0.0008049247422881679</v>
+      </c>
+      <c r="F3">
+        <v>0.0006544415787358133</v>
+      </c>
+      <c r="G3">
+        <v>0.0007949433179130107</v>
+      </c>
+      <c r="H3">
+        <v>0.0004904798191754113</v>
+      </c>
+      <c r="I3">
+        <v>0.0005004199225452387</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4.036163758763006E-4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.6906487930147961E-4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.0301885349457831E-4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6.6880877762107421E-4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6.3366266522179638E-4</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6.1762674460429405E-4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3.3960378188557778E-4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3.6059380925032803E-4</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Oleo Diesel</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.0003690648793014796</v>
+      </c>
+      <c r="C4">
+        <v>0.0004036163758763006</v>
+      </c>
+      <c r="D4">
+        <v>0.0007030188534945783</v>
+      </c>
+      <c r="E4">
+        <v>0.0006688087776210742</v>
+      </c>
+      <c r="F4">
+        <v>0.0006336626652217964</v>
+      </c>
+      <c r="G4">
+        <v>0.0006176267446042941</v>
+      </c>
+      <c r="H4">
+        <v>0.0003396037818855778</v>
+      </c>
+      <c r="I4">
+        <v>0.000360593809250328</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.8832091659343999E-4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.6534038715004589E-4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.0552831841557911E-4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4.3597167232377988E-4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.8538703582055719E-4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4.0517635353148109E-4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2.5461259754603022E-4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.6171395525001278E-4</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gasolina Comum</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.0002653403871500459</v>
+      </c>
+      <c r="C5">
+        <v>0.00028832091659344</v>
+      </c>
+      <c r="D5">
+        <v>0.0004055283184155791</v>
+      </c>
+      <c r="E5">
+        <v>0.0004359716723237799</v>
+      </c>
+      <c r="F5">
+        <v>0.0003853870358205572</v>
+      </c>
+      <c r="G5">
+        <v>0.0004051763535314811</v>
+      </c>
+      <c r="H5">
+        <v>0.0002546125975460302</v>
+      </c>
+      <c r="I5">
+        <v>0.0002617139552500128</v>
       </c>
     </row>
   </sheetData>
